--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H2">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J2">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>3600.565025609739</v>
+        <v>74.37174013449068</v>
       </c>
       <c r="R2">
-        <v>32405.08523048765</v>
+        <v>669.3456612104161</v>
       </c>
       <c r="S2">
-        <v>0.1061440262577096</v>
+        <v>0.002922238555648392</v>
       </c>
       <c r="T2">
-        <v>0.1061440262577096</v>
+        <v>0.002922238555648391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H3">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J3">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>2147.122808401872</v>
+        <v>29.154274705914</v>
       </c>
       <c r="R3">
-        <v>19324.10527561684</v>
+        <v>262.388472353226</v>
       </c>
       <c r="S3">
-        <v>0.06329680428836051</v>
+        <v>0.001145539225699469</v>
       </c>
       <c r="T3">
-        <v>0.06329680428836051</v>
+        <v>0.001145539225699469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H4">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J4">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>775.9961139871734</v>
+        <v>11.784517148394</v>
       </c>
       <c r="R4">
-        <v>6983.96502588456</v>
+        <v>106.060654335546</v>
       </c>
       <c r="S4">
-        <v>0.02287622951205737</v>
+        <v>0.000463041073241824</v>
       </c>
       <c r="T4">
-        <v>0.02287622951205737</v>
+        <v>0.0004630410732418237</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.942832</v>
+        <v>0.555934</v>
       </c>
       <c r="H5">
-        <v>122.828496</v>
+        <v>1.667802</v>
       </c>
       <c r="I5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589096</v>
       </c>
       <c r="J5">
-        <v>0.2583000005785166</v>
+        <v>0.005745252779589094</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>2238.240589703888</v>
+        <v>30.90766293052533</v>
       </c>
       <c r="R5">
-        <v>20144.16530733499</v>
+        <v>278.168966374728</v>
       </c>
       <c r="S5">
-        <v>0.06598294052038915</v>
+        <v>0.001214433924999411</v>
       </c>
       <c r="T5">
-        <v>0.06598294052038915</v>
+        <v>0.00121443392499941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>239.063137</v>
       </c>
       <c r="I6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J6">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>7007.83936973998</v>
+        <v>10660.46299302923</v>
       </c>
       <c r="R6">
-        <v>63070.55432765982</v>
+        <v>95944.16693726311</v>
       </c>
       <c r="S6">
-        <v>0.2065898770833962</v>
+        <v>0.4188743724828569</v>
       </c>
       <c r="T6">
-        <v>0.2065898770833962</v>
+        <v>0.4188743724828567</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>239.063137</v>
       </c>
       <c r="I7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J7">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>4178.980699241009</v>
@@ -883,10 +883,10 @@
         <v>37610.82629316908</v>
       </c>
       <c r="S7">
-        <v>0.1231956189974883</v>
+        <v>0.1642018662001042</v>
       </c>
       <c r="T7">
-        <v>0.1231956189974883</v>
+        <v>0.1642018662001041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>239.063137</v>
       </c>
       <c r="I8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J8">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>1510.334094700494</v>
+        <v>1689.195502538889</v>
       </c>
       <c r="R8">
-        <v>13593.00685230445</v>
+        <v>15202.75952285</v>
       </c>
       <c r="S8">
-        <v>0.04452438455229816</v>
+        <v>0.06637241802626283</v>
       </c>
       <c r="T8">
-        <v>0.04452438455229815</v>
+        <v>0.0663724180262628</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>239.063137</v>
       </c>
       <c r="I9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="J9">
-        <v>0.5027335710876245</v>
+        <v>0.823525905561055</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>4356.324746786295</v>
+        <v>4430.311786117296</v>
       </c>
       <c r="R9">
-        <v>39206.92272107665</v>
+        <v>39872.80607505567</v>
       </c>
       <c r="S9">
-        <v>0.1284236904544418</v>
+        <v>0.1740772488518312</v>
       </c>
       <c r="T9">
-        <v>0.1284236904544418</v>
+        <v>0.1740772488518312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H10">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J10">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>30.46476455545222</v>
+        <v>46.11323292653244</v>
       </c>
       <c r="R10">
-        <v>274.18288099907</v>
+        <v>415.019096338792</v>
       </c>
       <c r="S10">
-        <v>0.0008980959226979262</v>
+        <v>0.00181189611725939</v>
       </c>
       <c r="T10">
-        <v>0.0008980959226979262</v>
+        <v>0.00181189611725939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H11">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J11">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>18.167034997105</v>
+        <v>18.076729923043</v>
       </c>
       <c r="R11">
-        <v>163.503314973945</v>
+        <v>162.690569307387</v>
       </c>
       <c r="S11">
-        <v>0.0005355610094643102</v>
+        <v>0.0007102767401385747</v>
       </c>
       <c r="T11">
-        <v>0.0005355610094643102</v>
+        <v>0.0007102767401385746</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H12">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J12">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>6.565785853169445</v>
+        <v>7.306837021803</v>
       </c>
       <c r="R12">
-        <v>59.092072678525</v>
+        <v>65.76153319622699</v>
       </c>
       <c r="S12">
-        <v>0.0001935582168477281</v>
+        <v>0.0002871026121795614</v>
       </c>
       <c r="T12">
-        <v>0.0001935582168477281</v>
+        <v>0.0002871026121795613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3464216666666666</v>
+        <v>0.3446996666666666</v>
       </c>
       <c r="H13">
-        <v>1.039265</v>
+        <v>1.034099</v>
       </c>
       <c r="I13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="J13">
-        <v>0.002185503843515531</v>
+        <v>0.003562269474506148</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>18.93799225921166</v>
+        <v>19.16389555162622</v>
       </c>
       <c r="R13">
-        <v>170.441930332905</v>
+        <v>172.475059964636</v>
       </c>
       <c r="S13">
-        <v>0.0005582886945055669</v>
+        <v>0.0007529940049286218</v>
       </c>
       <c r="T13">
-        <v>0.0005582886945055669</v>
+        <v>0.0007529940049286215</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H14">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J14">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>3300.600517003555</v>
+        <v>2163.955067368578</v>
       </c>
       <c r="R14">
-        <v>29705.40465303199</v>
+        <v>19475.5956063172</v>
       </c>
       <c r="S14">
-        <v>0.09730112508764006</v>
+        <v>0.08502682496227541</v>
       </c>
       <c r="T14">
-        <v>0.09730112508764005</v>
+        <v>0.08502682496227537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H15">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J15">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>1968.245150712485</v>
+        <v>848.28646433755</v>
       </c>
       <c r="R15">
-        <v>17714.20635641236</v>
+        <v>7634.578179037951</v>
       </c>
       <c r="S15">
-        <v>0.05802352227299558</v>
+        <v>0.03333114712442004</v>
       </c>
       <c r="T15">
-        <v>0.05802352227299557</v>
+        <v>0.03333114712442003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H16">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J16">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>711.3475681737141</v>
+        <v>342.88784360355</v>
       </c>
       <c r="R16">
-        <v>6402.128113563426</v>
+        <v>3085.99059243195</v>
       </c>
       <c r="S16">
-        <v>0.0209704017057162</v>
+        <v>0.01347286045787628</v>
       </c>
       <c r="T16">
-        <v>0.0209704017057162</v>
+        <v>0.01347286045787627</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.53186833333334</v>
+        <v>16.17571666666667</v>
       </c>
       <c r="H17">
-        <v>112.595605</v>
+        <v>48.52715</v>
       </c>
       <c r="I17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="J17">
-        <v>0.2367809244903433</v>
+        <v>0.1671665721848498</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>2051.771873305899</v>
+        <v>899.3038713102889</v>
       </c>
       <c r="R17">
-        <v>18465.94685975309</v>
+        <v>8093.734841792599</v>
       </c>
       <c r="S17">
-        <v>0.06048587542399146</v>
+        <v>0.03533573964027813</v>
       </c>
       <c r="T17">
-        <v>0.06048587542399145</v>
+        <v>0.03533573964027811</v>
       </c>
     </row>
   </sheetData>
